--- a/biology/Zoologie/Échiquier_d'Occitanie/Échiquier_d'Occitanie.xlsx
+++ b/biology/Zoologie/Échiquier_d'Occitanie/Échiquier_d'Occitanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Occitanie</t>
+          <t>Échiquier_d'Occitanie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanargia occitanica
 L’Échiquier d'Occitanie (Melanargia occitanica) est une espèce de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Melanargia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Occitanie</t>
+          <t>Échiquier_d'Occitanie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Melanargia occitanica a été nommé par Eugen Johann Christoph Esper en 1793.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melanargia occitanica a été nommé par Eugen Johann Christoph Esper en 1793.
 Synonymes : Papilio arge occitanica Esper, 1789 ; Papilio psyche Hübner, 1799-1800.
-Noms vernaculaires
-L'Échiquier d'Occitanie se nomme Western Marbled White en anglais et Medioluto herrumbrosa en espagnol[1].
-Sous-espèces
-Melanargia occitanica pelagia Oberthür, 1911 au Maroc[1].
-Melanargia occitanica megalatlasica Tarrier, 1995 ; à Tizi-n-Talrhemt dans le Haut Atlas marocain.
-Melanargia occitanica moghrebiana Varin, 1951 ; à Ifrane, Azrou, Annoceur, Tizi-n-Foucht, au Col du Taghzeft, Aghbalou-Larbi dans le Moyen Atlas marocain.</t>
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Occitanie</t>
+          <t>Échiquier_d'Occitanie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +555,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier d'Occitanie se nomme Western Marbled White en anglais et Medioluto herrumbrosa en espagnol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Occitanie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Melanargia occitanica pelagia Oberthür, 1911 au Maroc.
+Melanargia occitanica megalatlasica Tarrier, 1995 ; à Tizi-n-Talrhemt dans le Haut Atlas marocain.
+Melanargia occitanica moghrebiana Varin, 1951 ; à Ifrane, Azrou, Annoceur, Tizi-n-Foucht, au Col du Taghzeft, Aghbalou-Larbi dans le Moyen Atlas marocain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Occitanie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un papillon de taille moyenne qui présente un damier marron plus ou moins foncé et blanc sur les parties distales et des veines marquées en noir sur les parties basales.
 Le revers dessine en noir les limites des damiers et les ocelles de l'apex des antérieures et en ligne aux postérieures sont bien visibles, de couleur ocre pupillés de bleu et doublement cerclés de blanc puis de noir.
@@ -559,83 +645,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_d%27Occitanie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La période de vol s'étend de fin avril à fin juin en une seule génération, au Maroc une courte période en mai[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont des poacées (graminées) : Brachypodium dont Brachypodium pinnatum, Dactylis dont Dactylis glomerata, Lygeum dont Lygeum spartum[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89chiquier_d%27Occitanie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Échiquier d'Occitanie est présent dans l'ouest de l'Afrique-du-Nord (Maroc) et dans le sud-ouest de l’Europe, Portugal, Espagne, sud de la France et dans les Alpes italiennes. Sa présence en Corse et en Sicile demande à être confirmée[1],[2].
-En France métropolitaine, il est présent dans tous les départements du pourtour méditerranéen[3].
-Biotope
-Il réside dans les garrigues ; au Maroc, en bordure des forêts en altitude.
-Protection
-Pas de statut de protection particulier en France[4]. Il est considéré comme vulnérable au Maroc.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89chiquier_d%27Occitanie</t>
+          <t>Échiquier_d'Occitanie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,10 +666,194 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de vol s'étend de fin avril à fin juin en une seule génération, au Maroc une courte période en mai.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Occitanie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des poacées (graminées) : Brachypodium dont Brachypodium pinnatum, Dactylis dont Dactylis glomerata, Lygeum dont Lygeum spartum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Occitanie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échiquier d'Occitanie est présent dans l'ouest de l'Afrique-du-Nord (Maroc) et dans le sud-ouest de l’Europe, Portugal, Espagne, sud de la France et dans les Alpes italiennes. Sa présence en Corse et en Sicile demande à être confirmée,.
+En France métropolitaine, il est présent dans tous les départements du pourtour méditerranéen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Occitanie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les garrigues ; au Maroc, en bordure des forêts en altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Occitanie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier en France. Il est considéré comme vulnérable au Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échiquier_d'Occitanie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chiquier_d%27Occitanie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Espèces ressemblantes en Europe occidentale et au Maghreb</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Melanargia arge - Échiquier d'Italie en Italie
 Melanargia galathea - Demi-deuil
